--- a/13. Daily Summery/C&F Agent Wise Car Delivery Main.xlsx
+++ b/13. Daily Summery/C&F Agent Wise Car Delivery Main.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. Official\17. Daily Summery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. Official\13. Daily Summery\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,14 +14,13 @@
   <sheets>
     <sheet name="Daily Summery Main" sheetId="1" r:id="rId1"/>
     <sheet name="Daily Summery To Sir" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>Total Bill</t>
   </si>
@@ -41,9 +40,6 @@
     <t>M/S Khan Enterprise</t>
   </si>
   <si>
-    <t>sunline agencies ltd</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -59,49 +55,43 @@
     <t>TRANS OCEAN SHIPPING LINES</t>
   </si>
   <si>
+    <t>M/S GOLDEN STAR AGENCIES</t>
+  </si>
+  <si>
+    <t>M/S Mohiuddin Ahmed &amp; Sons</t>
+  </si>
+  <si>
+    <t>Panguchi Enterprise</t>
+  </si>
+  <si>
+    <t>SKY Enterprise</t>
+  </si>
+  <si>
+    <t>M/S GOLDEN SHIPPING</t>
+  </si>
+  <si>
+    <t>M/S J. F POPULAR EXPRESS</t>
+  </si>
+  <si>
+    <t>Delivery Date: From 01/08/2024 To 01/08/2024</t>
+  </si>
+  <si>
+    <t>Skiper Shipping Co Ltd</t>
+  </si>
+  <si>
+    <t>SS Trading</t>
+  </si>
+  <si>
+    <t>M/S Trillion Shipping Agencies</t>
+  </si>
+  <si>
+    <t>ROXY TRADING &amp; SHIPPING (PVT.) LTD.</t>
+  </si>
+  <si>
+    <t>M/S SHAHID &amp; BROTHER'S</t>
+  </si>
+  <si>
     <t>M/S S. P TRADING</t>
-  </si>
-  <si>
-    <t>M/S GOLDEN STAR AGENCIES</t>
-  </si>
-  <si>
-    <t>M/S Mohiuddin Ahmed &amp; Sons</t>
-  </si>
-  <si>
-    <t>Panguchi Enterprise</t>
-  </si>
-  <si>
-    <t>SKY Enterprise</t>
-  </si>
-  <si>
-    <t>M/S SHINWA SHIPPING LINES</t>
-  </si>
-  <si>
-    <t>M/S WARISHA MOTORS</t>
-  </si>
-  <si>
-    <t>M/S Mahfuz Enterprise</t>
-  </si>
-  <si>
-    <t>M/S GOLDEN SHIPPING</t>
-  </si>
-  <si>
-    <t>Starpath Sea Trade Ltd</t>
-  </si>
-  <si>
-    <t>M/S SHINWA SHIPPING LINES / Starpath Sea Trade Ltd</t>
-  </si>
-  <si>
-    <t>M/S S. P TRADING / Mahfuz Enterprise</t>
-  </si>
-  <si>
-    <t>M/S K.H TRADING</t>
-  </si>
-  <si>
-    <t>M/S Four Star Trading Company</t>
-  </si>
-  <si>
-    <t>Delivery Date: From 30/07/2024 To 30/07/2024</t>
   </si>
 </sst>
 </file>
@@ -112,7 +102,7 @@
     <numFmt numFmtId="164" formatCode="###0;###0"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -153,17 +143,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -261,11 +240,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -287,76 +277,94 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -663,64 +671,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="21" style="16" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="9.33203125" style="11"/>
+    <col min="1" max="1" width="4.6640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="21" style="14" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9.33203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="A1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="24">
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="8">
-        <v>4</v>
-      </c>
-      <c r="D3" s="15">
-        <v>114368.93</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+        <v>13</v>
+      </c>
+      <c r="C3" s="7">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13">
+        <v>191007.95</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="24">
@@ -729,500 +737,494 @@
       <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8">
-        <v>8</v>
-      </c>
-      <c r="D4" s="15">
-        <v>95155.45</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="7">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13">
+        <v>89673.15</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8">
-        <v>9</v>
-      </c>
-      <c r="D5" s="15">
-        <v>86028.6</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13">
+        <v>39248.85</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="24">
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="8">
-        <v>3</v>
-      </c>
-      <c r="D6" s="15">
-        <v>52067.199999999997</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="13">
+        <v>38047.1</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="24">
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8">
-        <v>7</v>
-      </c>
-      <c r="D7" s="15">
-        <v>45885.3</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="13">
+        <v>36754.949999999997</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="24">
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="15">
-        <v>40948.300000000003</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="13">
+        <v>28594.1</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="24">
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="8">
-        <v>2</v>
-      </c>
-      <c r="D9" s="15">
-        <v>37452.300000000003</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="13">
+        <v>24061.5</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="24">
         <v>8</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="8">
-        <v>4</v>
-      </c>
-      <c r="D10" s="15">
-        <v>20700.96</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>23763.15</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="24">
         <v>9</v>
       </c>
       <c r="B11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="13">
+        <v>15244.2</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="31">
+        <v>10</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>12393.8</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="31">
+        <v>11</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13">
+        <v>7985.15</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="31">
+        <v>12</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="13">
+        <v>7259.05</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="31">
+        <v>13</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>4638.6499999999996</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="31">
+        <v>14</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13">
+        <v>4408.6499999999996</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="31">
+        <v>15</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>4408.6499999999996</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="7">
+        <f>SUM(C3:C17)</f>
+        <v>46</v>
+      </c>
+      <c r="D18" s="13">
+        <f>SUM(D3:D17)</f>
+        <v>527488.9</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="15">
-        <v>16813.95</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
-        <v>10</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="8">
-        <v>3</v>
-      </c>
-      <c r="D12" s="15">
-        <v>16813.95</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
-        <v>11</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="8">
-        <v>4</v>
-      </c>
-      <c r="D13" s="15">
-        <v>8663.65</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
-        <v>12</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="8">
-        <v>2</v>
-      </c>
-      <c r="D14" s="15">
-        <v>7115.3</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="24">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="24">
+        <v>1</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="15">
-        <v>3557.65</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="24">
-        <v>14</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15">
-        <v>3557.65</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="8">
-        <f>SUM(C3:C16)</f>
-        <v>53</v>
-      </c>
-      <c r="D17" s="15">
-        <f>SUM(D3:D16)</f>
-        <v>549129.19000000006</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="C26" s="7">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="8">
-        <v>1</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+        <v>5</v>
+      </c>
+      <c r="C27" s="7">
+        <v>6</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="8">
-        <v>8</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>4</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="8">
-        <v>9</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="C29" s="7">
+        <v>4</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="8">
+        <v>12</v>
+      </c>
+      <c r="C30" s="7">
         <v>3</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="8">
-        <v>7</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="8">
-        <v>2</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="C32" s="7">
+        <v>5</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="8">
-        <v>2</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B34" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="7">
+        <v>3</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="31">
+        <v>10</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="31">
+        <v>11</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="31">
+        <v>12</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="32">
+        <v>2</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="31">
+        <v>13</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="32">
+        <v>1</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="31">
         <v>14</v>
       </c>
-      <c r="C34" s="8">
-        <v>4</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A35" s="24">
-        <v>9</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="8">
-        <v>3</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="24">
-        <v>10</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="8">
-        <v>3</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="24">
-        <v>11</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="8">
-        <v>3</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="24">
-        <v>12</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="8">
-        <v>2</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="24">
-        <v>13</v>
-      </c>
       <c r="B39" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="8">
-        <v>2</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="C39" s="32">
+        <v>1</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="24">
-        <v>14</v>
+      <c r="A40" s="31">
+        <v>15</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="8">
-        <v>1</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="C40" s="32">
+        <v>1</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="24">
-        <v>15</v>
-      </c>
-      <c r="B41" s="25" t="s">
+      <c r="A41" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="8">
-        <v>1</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="24">
-        <v>16</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="8">
-        <v>2</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="8">
-        <f>SUM(C27:C42)</f>
-        <v>53</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="32">
+        <v>46</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1231,25 +1233,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="10" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="53.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -1257,11 +1259,11 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1269,11 +1271,11 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1281,7 +1283,7 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1291,11 +1293,11 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1303,14 +1305,14 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="8"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1322,10 +1324,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1335,8 +1337,8 @@
       <c r="B9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
-        <v>8</v>
+      <c r="C9" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1344,10 +1346,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="8">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1355,10 +1357,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="8">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1366,10 +1368,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1377,10 +1379,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1388,10 +1390,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="8">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C14" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1399,10 +1401,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="8">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1410,9 +1412,9 @@
         <v>9</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="8">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7">
         <v>3</v>
       </c>
     </row>
@@ -1421,10 +1423,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="8">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1432,100 +1434,75 @@
         <v>11</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="8">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C18" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
         <v>12</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="B19" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="24">
         <v>13</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="24">
         <v>14</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="24">
         <v>15</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24">
-        <v>16</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="8">
-        <f>SUM(C8:C23)</f>
-        <v>53</v>
+      <c r="B23" s="34"/>
+      <c r="C23" s="36">
+        <f>SUM(C8:C22)</f>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="1.45" right="1.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>